--- a/作業用/今後の予定.xlsx
+++ b/作業用/今後の予定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\3DGame01\作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E840B48-8B90-4F98-B855-38FAD237B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C52AF7F-1AD7-4F6D-9AB7-5E91E7473445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22AFDA27-A13B-4197-BF7B-A0B30AAADCC4}"/>
+    <workbookView xWindow="9435" yWindow="2475" windowWidth="17055" windowHeight="13005" xr2:uid="{22AFDA27-A13B-4197-BF7B-A0B30AAADCC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>今後の予定</t>
     <rPh sb="0" eb="2">
@@ -118,13 +118,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>BGM、SE、Voise追加</t>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/31 マスターアップ、提出予定</t>
+    <rPh sb="13" eb="15">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>タイトル画面、</t>
     </r>
     <r>
       <rPr>
         <strike/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -135,9 +164,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,23 +175,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BGM、SE、Voise追加</t>
-  </si>
-  <si>
-    <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/31 マスターアップ、提出予定</t>
-    <rPh sb="13" eb="15">
-      <t>テイシュツ</t>
+    <t>オブジェクトのアイテムを調整</t>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクトを改良</t>
+    <rPh sb="6" eb="8">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルのSE追加</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾のときのヌルリファレンスを解消</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
     </rPh>
     <rPh sb="15" eb="17">
-      <t>ヨテイ</t>
-    </rPh>
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェードイン、フェードアウト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -170,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +257,25 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -241,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +313,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843441AC-D5F8-4CA8-8415-87BF0C881BD1}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -593,12 +660,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -613,11 +680,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -625,7 +692,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -633,18 +700,43 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
